--- a/biology/Médecine/Lunatum/Lunatum.xlsx
+++ b/biology/Médecine/Lunatum/Lunatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Os semi-lunaire
 Le lunatum (ou os semi-lunaire en ancienne nomenclature) est l'os médian de la première rangée du carpe dont le rôle fonctionnel, en duo avec l'os scaphoïde, est fondamental dans la biomécanique du poignet. Il est situé entre l'os scaphoïde en dehors et l'os triquetrum en dedans ; entre le radius en haut et l'os capitatum en dessous.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le lunatum a une forme globale en quartier d'orange avec son grand axe d'avant en arrière, sa concavité coiffant en bas l'os capitatum.
 Il présente
@@ -547,7 +561,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ossification du lunatum commence entre 18 mois et 4 ans et 3 mois.
 </t>
@@ -578,11 +594,13 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est sujet aux fractures et à l'écrasement.
-Rarement, il peut se luxer à la face antérieure du poignet, souvent associée à une fracture de l'os scaphoïde[1]. Le principal risque est alors celui de la compression du nerf médian. Son traitement repose sur la réduction fermée de la luxation sous anesthésie mais peut nécessiter une ouverture chirurgicale du poignet.
-La maladie de Kienböck est une ostéonécrose intéressant le lunatum dont l'origine n'est pas encore comprise entièrement[2].
+Rarement, il peut se luxer à la face antérieure du poignet, souvent associée à une fracture de l'os scaphoïde. Le principal risque est alors celui de la compression du nerf médian. Son traitement repose sur la réduction fermée de la luxation sous anesthésie mais peut nécessiter une ouverture chirurgicale du poignet.
+La maladie de Kienböck est une ostéonécrose intéressant le lunatum dont l'origine n'est pas encore comprise entièrement.
 </t>
         </is>
       </c>
